--- a/Example Network.xlsx
+++ b/Example Network.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMeeks\Documents\GitHub\RANK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMeeks\Documents\GitHub\RANK\RANK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Schematic and input matrix" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>Schematic</t>
+  </si>
+  <si>
+    <t>Input Matrix</t>
   </si>
 </sst>
 </file>
@@ -106,6 +112,1044 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1744980" y="2110740"/>
+          <a:ext cx="220980" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2712720" y="2103120"/>
+          <a:ext cx="220980" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2240280" y="2133600"/>
+          <a:ext cx="220980" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2278380" y="2575560"/>
+          <a:ext cx="220980" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>D</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1851660" y="2537460"/>
+          <a:ext cx="220980" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2186940" y="2948940"/>
+          <a:ext cx="220980" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>F</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2758440" y="2750820"/>
+          <a:ext cx="220980" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>G</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3307080" y="2758440"/>
+          <a:ext cx="220980" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>H</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3756660" y="2971800"/>
+          <a:ext cx="220980" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>J</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3535680" y="2377440"/>
+          <a:ext cx="220980" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>I</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1965960" y="2225040"/>
+          <a:ext cx="274320" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2461260" y="2217420"/>
+          <a:ext cx="251460" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2350770" y="2362200"/>
+          <a:ext cx="38100" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2297430" y="2804160"/>
+          <a:ext cx="91440" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2072640" y="2651760"/>
+          <a:ext cx="205740" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2499360" y="2689860"/>
+          <a:ext cx="259080" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2979420" y="2865120"/>
+          <a:ext cx="327660" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3528060" y="2606040"/>
+          <a:ext cx="118110" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3528060" y="2872740"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,124 +1415,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="I10">
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="I11">
+      <c r="J13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>